--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3539.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3539.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.863276476365535</v>
+        <v>0.9542087912559509</v>
       </c>
       <c r="B1">
-        <v>2.155435049582445</v>
+        <v>0.9135027527809143</v>
       </c>
       <c r="C1">
-        <v>2.205560458896935</v>
+        <v>0.9288582801818848</v>
       </c>
       <c r="D1">
-        <v>2.611704865712088</v>
+        <v>1.155512094497681</v>
       </c>
       <c r="E1">
-        <v>3.123331470844878</v>
+        <v>1.045491456985474</v>
       </c>
     </row>
   </sheetData>
